--- a/docs/instructional/Architect_Add-in_For_Excel.xlsx
+++ b/docs/instructional/Architect_Add-in_For_Excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choxa\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84718A50-465E-4B8D-AD7E-6D90D30B64DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72009272-9CBF-4892-8C93-5336950C1D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{3BFAECB8-777A-42F3-A784-BE6C0FB237B0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3BFAECB8-777A-42F3-A784-BE6C0FB237B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,8 +37,9 @@
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
+  <metadataTypes count="2">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
@@ -49,11 +50,25 @@
       </extLst>
     </bk>
   </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
 </metadata>
 </file>
 
@@ -75,9 +90,6 @@
     <t>Search Symbols</t>
   </si>
   <si>
-    <t>Account Positions</t>
-  </si>
-  <si>
     <t>ES 20250620 CME Future/USD</t>
   </si>
   <si>
@@ -160,6 +172,9 @@
   </si>
   <si>
     <t>can search ES, NQ, ZN, etc</t>
+  </si>
+  <si>
+    <t>Streaming Fills Example</t>
   </si>
 </sst>
 </file>
@@ -203,10 +218,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -222,6 +236,62 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>14</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_error">
+    <k n="errorType" t="i"/>
+  </s>
+</rvStructures>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -557,19 +627,23 @@
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
   <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions val="1"/>
+    </a:ext>
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
       <we:customFunctionIdList>
         <we:customFunctionIds>_xldudf_ARCHITECT_INITIALIZECLIENT</we:customFunctionIds>
         <we:customFunctionIds>_xldudf_ARCHITECT_MARKETBBO</we:customFunctionIds>
-        <we:customFunctionIds>_xldudf_ARCHITECT_STREAMMARKETBBO</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_ARCHITECT_STREAMMARKETTICKER</we:customFunctionIds>
         <we:customFunctionIds>_xldudf_ARCHITECT_MARKETMID</we:customFunctionIds>
         <we:customFunctionIds>_xldudf_ARCHITECT_MARKETTICKER</we:customFunctionIds>
         <we:customFunctionIds>_xldudf_ARCHITECT_ACCOUNTLIST</we:customFunctionIds>
-        <we:customFunctionIds>_xldudf_ARCHITECT_ACCOUNTPOSITIONS</we:customFunctionIds>
         <we:customFunctionIds>_xldudf_ARCHITECT_STREAMACCOUNTPOSITIONVALUES</we:customFunctionIds>
         <we:customFunctionIds>_xldudf_ARCHITECT_ACCOUNTPNL</we:customFunctionIds>
         <we:customFunctionIds>_xldudf_ARCHITECT_ACCOUNTBALANCE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_ARCHITECT_DERIVEFUTURESSYMBOL</we:customFunctionIds>
         <we:customFunctionIds>_xldudf_ARCHITECT_SEARCHSYMBOLS</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_ARCHITECT_STREAMFILLSANALYSIS</we:customFunctionIds>
       </we:customFunctionIdList>
     </a:ext>
   </we:extLst>
@@ -578,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DCD5C9-F276-42BF-B351-4451BDC8B8DF}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -656,9 +730,9 @@
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B8" t="e" cm="1">
+      <c r="B8" cm="1">
         <f t="array" aca="1" ref="B8" ca="1">_xldudf_ARCHITECT_ACCOUNTBALANCE(B4)</f>
-        <v>#VALUE!</v>
+        <v>21529.42</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -666,303 +740,444 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B11" t="e" cm="1">
-        <f t="array" aca="1" ref="B11" ca="1">_xldudf_ARCHITECT_ACCOUNTPNL(B4)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="B11" cm="1">
+        <f t="array" aca="1" ref="B11:I11" ca="1">_xldudf_ARCHITECT_ACCOUNTPNL(B4)</f>
+        <v>896.85</v>
+      </c>
+      <c r="C11">
+        <f ca="1"/>
+        <v>10223.73</v>
+      </c>
+      <c r="D11">
+        <f ca="1"/>
+        <v>3648.85</v>
+      </c>
+      <c r="E11">
+        <f ca="1"/>
+        <v>9091.4</v>
+      </c>
+      <c r="F11">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f ca="1"/>
+        <v>3648.85</v>
+      </c>
+      <c r="I11">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
         <v>5</v>
       </c>
-      <c r="B13" t="str" cm="1">
-        <f t="array" ref="B13:D16">_xldudf_ARCHITECT_ACCOUNTPOSITIONS(B5)</f>
-        <v>2025-04-16T14:54:21.655406711Z</v>
-      </c>
-      <c r="C13" t="str">
-        <v/>
-      </c>
-      <c r="D13" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="str">
-        <v>Symbol</v>
-      </c>
-      <c r="C14" s="1" t="str">
-        <v>Quantity</v>
-      </c>
-      <c r="D14" s="1" t="str">
-        <v>Cost Basis</v>
+      <c r="C14" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" t="str">
-        <v>GC 20250626 CME Future/USD</v>
-      </c>
-      <c r="C15" t="str">
-        <v>2</v>
-      </c>
-      <c r="D15" t="str">
-        <v>3172.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" t="str">
-        <v>SI 20250528 CME Future/USD</v>
-      </c>
-      <c r="C16" t="str">
-        <v>1</v>
-      </c>
-      <c r="D16" t="str">
-        <v>32.025</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
         <v>8</v>
       </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" t="s">
-        <v>11</v>
+      <c r="C17" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
+      <c r="A19" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="B19" cm="1">
+        <f t="array" aca="1" ref="B19:C19" ca="1">_xldudf_ARCHITECT_MARKETBBO($B$14,$B$17)</f>
+        <v>5831.75</v>
+      </c>
+      <c r="C19">
+        <f ca="1"/>
+        <v>5832</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="B21" cm="1">
+        <f t="array" aca="1" ref="B21" ca="1">_xldudf_ARCHITECT_MARKETMID(C14,B17)</f>
+        <v>20815.625</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" cm="1">
-        <f t="array" aca="1" ref="B23:C23" ca="1">_xldudf_ARCHITECT_MARKETBBO($B$18,$B$21)</f>
-        <v>5366.25</v>
-      </c>
-      <c r="C23">
-        <f ca="1"/>
-        <v>5366.5</v>
+      <c r="B23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B25" cm="1">
-        <f t="array" aca="1" ref="B25" ca="1">_xldudf_ARCHITECT_MARKETMID(C18,B21)</f>
-        <v>18607.125</v>
+      <c r="B24" cm="1">
+        <f t="array" aca="1" ref="B24:G24" ca="1">_xldudf_ARCHITECT_MARKETTICKER("ES 20250620 CME Future/USD", B17)</f>
+        <v>5831.75</v>
+      </c>
+      <c r="C24">
+        <f ca="1"/>
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <f ca="1"/>
+        <v>5832</v>
+      </c>
+      <c r="E24">
+        <f ca="1"/>
+        <v>43</v>
+      </c>
+      <c r="F24">
+        <f ca="1"/>
+        <v>5847.5</v>
+      </c>
+      <c r="G24">
+        <f ca="1"/>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" s="1" t="s">
+      <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="B27" cm="1">
+        <f t="array" ref="B27:D27">_xldudf_ARCHITECT_STREAMMARKETTICKER(B14,B17)</f>
+        <v>5831.75</v>
+      </c>
+      <c r="C27">
+        <v>5832</v>
+      </c>
+      <c r="D27">
+        <v>5847.5</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" cm="1">
-        <f t="array" aca="1" ref="B28:G28" ca="1">_xldudf_ARCHITECT_MARKETTICKER("ES 20250620 CME Future/USD", B21)</f>
-        <v>5366.25</v>
-      </c>
-      <c r="C28">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="D28">
-        <f ca="1"/>
-        <v>5366.5</v>
-      </c>
-      <c r="E28">
-        <f ca="1"/>
-        <v>19</v>
-      </c>
-      <c r="F28">
-        <f ca="1"/>
-        <v>5366.5</v>
-      </c>
-      <c r="G28">
-        <f ca="1"/>
-        <v>1</v>
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="str" cm="1">
+        <f t="array" ref="B30:D34">_xldudf_ARCHITECT_STREAMACCOUNTPOSITIONVALUES(B4,{"AAPL US Equity/USD","SPY US Equity/USD","TQQQ US Equity/USD"})</f>
+        <v>2025-05-13T01:06:59.074737370Z</v>
+      </c>
+      <c r="C30" t="str">
+        <v/>
+      </c>
+      <c r="D30" t="str">
+        <v/>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" cm="1">
-        <f t="array" ref="B31:C31">_xldudf_ARCHITECT_STREAMMARKETBBO(B18,B21)</f>
-        <v>5366.25</v>
-      </c>
-      <c r="C31">
-        <v>5366.5</v>
+      <c r="B31" t="str">
+        <v>Symbol</v>
+      </c>
+      <c r="C31" t="str">
+        <v>NetPosition</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Cost Basis</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="B32" t="str">
+        <v>AAPL US Equity/USD</v>
+      </c>
+      <c r="C32" t="str">
+        <v>-51</v>
+      </c>
+      <c r="D32" t="str">
+        <v>205.19627450980392156862745098</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B33" t="str">
+        <v>SPY US Equity/USD</v>
+      </c>
+      <c r="C33" t="str">
+        <v>0</v>
+      </c>
+      <c r="D33" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B34" t="str">
+        <v>TQQQ US Equity/USD</v>
+      </c>
+      <c r="C34" t="str">
+        <v>-1</v>
+      </c>
+      <c r="D34" t="str">
+        <v>54.02</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B37" t="str" cm="1">
+        <f t="array" ref="B37:D40">_xldudf_ARCHITECT_STREAMACCOUNTPOSITIONVALUES(B5,B14:C14, TRUE)</f>
+        <v>2025-05-12T21:10:10.904309363Z</v>
+      </c>
+      <c r="C37" t="str">
+        <v/>
+      </c>
+      <c r="D37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B38" t="str">
+        <v>Symbol</v>
+      </c>
+      <c r="C38" t="str">
+        <v>NetPosition</v>
+      </c>
+      <c r="D38" t="str">
+        <v>Cost Basis</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B39" t="str">
+        <v>ES 20250620 CME Future/USD</v>
+      </c>
+      <c r="C39" t="str">
+        <v>0</v>
+      </c>
+      <c r="D39" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B40" t="str">
+        <v>NQ 20250620 CME Future/USD</v>
+      </c>
+      <c r="C40" t="str">
+        <v>0</v>
+      </c>
+      <c r="D40" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" t="str" cm="1">
+        <f t="array" ref="B42:H43">_xldudf_ARCHITECT_STREAMFILLSANALYSIS(B5, "AAPL", 2)</f>
+        <v>Symbols</v>
+      </c>
+      <c r="C42" t="str">
+        <v>TradePosition</v>
+      </c>
+      <c r="D42" t="str">
+        <v>TradeCount</v>
+      </c>
+      <c r="E42" t="str">
+        <v>AverageBuyPrice</v>
+      </c>
+      <c r="F42" t="str">
+        <v>BuyQuantity</v>
+      </c>
+      <c r="G42" t="str">
+        <v>AverageSellPrice</v>
+      </c>
+      <c r="H42" t="str">
+        <v>SellQuantity</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B43" t="str">
+        <v>AAPL</v>
+      </c>
+      <c r="C43" t="str">
+        <v/>
+      </c>
+      <c r="D43" t="str">
+        <v/>
+      </c>
+      <c r="E43" t="str">
+        <v/>
+      </c>
+      <c r="F43" t="str">
+        <v/>
+      </c>
+      <c r="G43" t="str">
+        <v/>
+      </c>
+      <c r="H43" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" t="str" cm="1">
+        <f t="array" ref="B47:B66">_xldudf_ARCHITECT_SEARCHSYMBOLS("ZN")</f>
+        <v>ZN 20250618 CME Future/USD</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" t="str" cm="1">
-        <f t="array" ref="B34:D39">_xldudf_ARCHITECT_STREAMACCOUNTPOSITIONVALUES(B5, "SPY", "QQQ", B18, B15)</f>
-        <v>2025-04-16T14:56:28.673876445Z</v>
-      </c>
-      <c r="C34" t="str">
-        <v/>
-      </c>
-      <c r="D34" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B35" t="str">
-        <v>Symbol</v>
-      </c>
-      <c r="C35" t="str">
-        <v>Quantity</v>
-      </c>
-      <c r="D35" t="str">
-        <v>Cost Basis</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B36" t="str">
-        <v>SPY</v>
-      </c>
-      <c r="C36" t="str">
-        <v>0</v>
-      </c>
-      <c r="D36" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B37" t="str">
-        <v>QQQ</v>
-      </c>
-      <c r="C37" t="str">
-        <v>0</v>
-      </c>
-      <c r="D37" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B38" t="str">
-        <v>ES 20250620 CME Future/USD</v>
-      </c>
-      <c r="C38" t="str">
-        <v>0</v>
-      </c>
-      <c r="D38" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B39" t="str">
-        <v>GC 20250626 CME Future/USD</v>
-      </c>
-      <c r="C39" t="str">
-        <v>2</v>
-      </c>
-      <c r="D39" t="str">
-        <v>3172.6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" t="str" cm="1">
-        <f t="array" ref="B42:B45">_xldudf_ARCHITECT_SEARCHSYMBOLS("ZN")</f>
-        <v>ZN 20250618 CME Future/USD</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>33</v>
-      </c>
-      <c r="B43" t="str">
+      <c r="B48" t="str">
         <v>ZN 20251219 CME Future/USD</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B44" t="str">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" t="str">
         <v>ZN 20250320 CME Future/USD</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B45" t="str">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" t="str">
         <v>ZN 20250919 CME Future/USD</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" t="str">
+        <v>BIT 20250627 CDE Future/USD</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" t="str">
+        <v>ES 20250321 CME Future/USD</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" t="str">
+        <v>ES 20250919 CME Future/USD</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" t="str">
+        <v>ES 20260320 CME Future/USD</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" t="str">
+        <v>ES 20260918 CME Future/USD</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" t="str">
+        <v>ES 20261218 CME Future/USD</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57" t="str">
+        <v>ES 20270617 CME Future/USD</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" t="str">
+        <v>ES 20270917 CME Future/USD</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59" t="str">
+        <v>ES 20280317 CME Future/USD</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60" t="str">
+        <v>ES 20280616 CME Future/USD</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61" t="str">
+        <v>ES 20281215 CME Future/USD</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B62" t="str">
+        <v>ES 20290615 CME Future/USD</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B63" t="str">
+        <v>ES 20291221 CME Future/USD</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B64" t="str">
+        <v>ES 20300621 CME Future/USD</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" t="str">
+        <v>ET 20250530 CDE Future/USD</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" t="str">
+        <v>ET 20250725 CDE Future/USD</v>
       </c>
     </row>
   </sheetData>
